--- a/2025/10/2025-10-26/26_combined_confidence.xlsx
+++ b/2025/10/2025-10-26/26_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,165 +496,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CD Tondela - Sporting CP : 17:00</t>
+          <t>PAOK Thessaloniki ✓ - Volos NPS: 3:0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>PAOK Thessaloniki</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>1.29</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki  - Volos NPS: 16:30</t>
+          <t>Real Madrid ✓ - FC Barcelona: 2:1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>2.05</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FK Bodø/Glimt  - Molde FK: -:-'</t>
+          <t>CD Tondela - Sporting CP : 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FK Bodø/Glimt</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Real Madrid  - FC Barcelona: -:-'</t>
+          <t>FK Bodø/Glimt ✓ - Molde FK: 4:1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>FK Bodø/Glimt</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>1.29</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Panathinaikos FC  - Asteras Aktor: -:-'</t>
+          <t>CE Casa de Portugal  - FC Santa Coloma B: 13:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Panathinaikos FC</t>
+          <t>CE Casa de Portugal</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>13</v>
       </c>
       <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CE Casa de Portugal  - FC Santa Coloma B: 13:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CE Casa de Portugal</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>55</v>
-      </c>
-      <c r="D8" t="n">
-        <v>22</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>13</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sporting San Miguelito  - CD Árabe Unido: 0:0</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sporting San Miguelito</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>54</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
